--- a/data/output/set12/high_noisy/results/dual.xlsx
+++ b/data/output/set12/high_noisy/results/dual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set12\high_noisy_50\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set12\high_noisy_25\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CA7773-1DE8-4349-9812-5D990440DE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE324C67-CC05-40A1-BEF4-04BFB8D3DD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>06.png</t>
   </si>
@@ -65,105 +65,6 @@
   </si>
   <si>
     <t>Score</t>
-  </si>
-  <si>
-    <t>21.22</t>
-  </si>
-  <si>
-    <t>0.3009</t>
-  </si>
-  <si>
-    <t>25.65</t>
-  </si>
-  <si>
-    <t>20.72</t>
-  </si>
-  <si>
-    <t>0.2230</t>
-  </si>
-  <si>
-    <t>21.51</t>
-  </si>
-  <si>
-    <t>21.03</t>
-  </si>
-  <si>
-    <t>0.2902</t>
-  </si>
-  <si>
-    <t>25.02</t>
-  </si>
-  <si>
-    <t>21.18</t>
-  </si>
-  <si>
-    <t>0.3744</t>
-  </si>
-  <si>
-    <t>29.31</t>
-  </si>
-  <si>
-    <t>21.21</t>
-  </si>
-  <si>
-    <t>0.3549</t>
-  </si>
-  <si>
-    <t>28.35</t>
-  </si>
-  <si>
-    <t>21.02</t>
-  </si>
-  <si>
-    <t>0.3256</t>
-  </si>
-  <si>
-    <t>26.79</t>
-  </si>
-  <si>
-    <t>21.27</t>
-  </si>
-  <si>
-    <t>0.3279</t>
-  </si>
-  <si>
-    <t>27.03</t>
-  </si>
-  <si>
-    <t>20.87</t>
-  </si>
-  <si>
-    <t>0.4245</t>
-  </si>
-  <si>
-    <t>31.66</t>
-  </si>
-  <si>
-    <t>21.38</t>
-  </si>
-  <si>
-    <t>0.4793</t>
-  </si>
-  <si>
-    <t>34.65</t>
-  </si>
-  <si>
-    <t>20.99</t>
-  </si>
-  <si>
-    <t>0.3806</t>
-  </si>
-  <si>
-    <t>29.52</t>
-  </si>
-  <si>
-    <t>21.67</t>
-  </si>
-  <si>
-    <t>0.4456</t>
-  </si>
-  <si>
-    <t>33.11</t>
   </si>
 </sst>
 </file>
@@ -526,18 +427,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,213 +458,160 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
+      <c r="B2">
+        <v>26.999019570000002</v>
+      </c>
+      <c r="C2">
+        <v>0.58614907000000005</v>
+      </c>
+      <c r="D2">
+        <v>42.80696339</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
+      <c r="B3">
+        <v>26.529936079999999</v>
+      </c>
+      <c r="C3">
+        <v>0.45270262999999999</v>
+      </c>
+      <c r="D3">
+        <v>35.900099660000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
+      <c r="B4">
+        <v>26.583964269999999</v>
+      </c>
+      <c r="C4">
+        <v>0.51929062000000004</v>
+      </c>
+      <c r="D4">
+        <v>39.25651319</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
+      <c r="B5">
+        <v>26.774142430000001</v>
+      </c>
+      <c r="C5">
+        <v>0.61767780000000005</v>
+      </c>
+      <c r="D5">
+        <v>44.270961120000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
+      <c r="B6">
+        <v>26.711209620000002</v>
+      </c>
+      <c r="C6">
+        <v>0.56626900000000002</v>
+      </c>
+      <c r="D6">
+        <v>41.669055040000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
+      <c r="B7">
+        <v>26.297968529999999</v>
+      </c>
+      <c r="C7">
+        <v>0.52974944999999996</v>
+      </c>
+      <c r="D7">
+        <v>39.63645683</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
+      <c r="B8">
+        <v>26.576386079999999</v>
+      </c>
+      <c r="C8">
+        <v>0.57142873999999999</v>
+      </c>
+      <c r="D8">
+        <v>41.859630189999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
+      <c r="B9">
+        <v>25.98670937</v>
+      </c>
+      <c r="C9">
+        <v>0.63879450000000004</v>
+      </c>
+      <c r="D9">
+        <v>44.933079460000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
+      <c r="B10">
+        <v>26.770290459999998</v>
+      </c>
+      <c r="C10">
+        <v>0.67890594999999998</v>
+      </c>
+      <c r="D10">
+        <v>47.330442720000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
+      <c r="B11">
+        <v>26.304124349999999</v>
+      </c>
+      <c r="C11">
+        <v>0.59523521000000001</v>
+      </c>
+      <c r="D11">
+        <v>42.913822459999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
+      <c r="B12">
+        <v>26.726704269999999</v>
+      </c>
+      <c r="C12">
+        <v>0.65771687999999995</v>
+      </c>
+      <c r="D12">
+        <v>46.249196159999997</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>